--- a/figuur 1 excel v. 2.xlsx
+++ b/figuur 1 excel v. 2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Sync\Research\Self-Identity\Study 3\scale-development-scripts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B45EE681-8BCA-48E2-A88C-EB29F60BDDB6}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21F0A528-9205-4CC5-96F2-8B2D20492E28}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17625" xr2:uid="{AED7BBE5-35AB-499D-8B03-4AC437DEC764}"/>
   </bookViews>
@@ -19,6 +19,11 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -78,93 +83,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>266067</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>38997</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>602161</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>87313</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>280</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>153296</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="Rechthoek: afgeronde hoeken 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{16901742-230C-4BFD-AC4F-0226557FE67A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5142867" y="4229997"/>
-          <a:ext cx="2172613" cy="876299"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400"/>
-            <a:t>Excluded</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400"/>
-            <a:t>(</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" i="1"/>
-            <a:t>N</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" baseline="0"/>
-            <a:t> = 36)</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1400"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>38099</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>134306</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>607218</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>187324</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -181,9 +109,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="3695699" y="4134806"/>
-          <a:ext cx="1" cy="1008694"/>
+        <a:xfrm>
+          <a:off x="3205661" y="6754813"/>
+          <a:ext cx="5057" cy="290511"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -211,159 +139,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>28576</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>3174</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>178593</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>262217</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>77153</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="38" name="Rechte verbindingslijn met pijl 37">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6892F6A6-E903-4F0C-A54C-CBEC2F6713F4}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="71" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="3686176" y="2162175"/>
-          <a:ext cx="1452841" cy="10478"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>262217</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>20003</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>280</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>134303</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="71" name="Rechthoek: afgeronde hoeken 70">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{726B84C6-45EC-44E8-AEFB-30B9A4BC7DE3}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5139017" y="1734503"/>
-          <a:ext cx="2176463" cy="876300"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400"/>
-            <a:t>Descendency search using Google Scholar</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" baseline="0"/>
-            <a:t> </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" baseline="0"/>
-            <a:t>(</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" i="1" baseline="0"/>
-            <a:t>N</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" i="0" baseline="0"/>
-            <a:t> = 1.426)</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1400"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>38099</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>83343</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>38099</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>600074</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>111124</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="26" name="Groep 25">
+        <xdr:cNvPr id="47" name="Groep 46">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FE54E24E-D613-46EE-9496-54C9AADF2C66}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C8A72D34-4A84-415B-A6D5-405E10AFCEEC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -371,10 +163,10 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2476499" y="654843"/>
-          <a:ext cx="2438400" cy="5364957"/>
-          <a:chOff x="2476499" y="654843"/>
-          <a:chExt cx="2438400" cy="5364957"/>
+          <a:off x="1995487" y="178593"/>
+          <a:ext cx="2430462" cy="7743031"/>
+          <a:chOff x="2428874" y="178593"/>
+          <a:chExt cx="2438400" cy="7743031"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
@@ -390,7 +182,7 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="2476499" y="654843"/>
+            <a:off x="2428874" y="178593"/>
             <a:ext cx="2438400" cy="878831"/>
           </a:xfrm>
           <a:prstGeom prst="roundRect">
@@ -459,8 +251,8 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="2481573" y="2542368"/>
-            <a:ext cx="2428253" cy="1592438"/>
+            <a:off x="2428874" y="4399743"/>
+            <a:ext cx="2428253" cy="2355070"/>
           </a:xfrm>
           <a:prstGeom prst="roundRect">
             <a:avLst/>
@@ -494,6 +286,22 @@
             <a:pPr algn="l"/>
             <a:r>
               <a:rPr lang="en-US" sz="1400"/>
+              <a:t>- Exclusion based on abstract (</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" i="1"/>
+              <a:t>N</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" i="0"/>
+              <a:t> = xx)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1400"/>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400"/>
               <a:t>-  Not</a:t>
             </a:r>
             <a:r>
@@ -506,7 +314,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="en-US" sz="1400" i="0" baseline="0"/>
-              <a:t>= )</a:t>
+              <a:t>= 3)</a:t>
             </a:r>
           </a:p>
           <a:p>
@@ -521,22 +329,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="en-US" sz="1400" i="0" baseline="0"/>
-              <a:t> = xx)</a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:r>
-              <a:rPr lang="en-US" sz="1400" i="0" baseline="0"/>
-              <a:t>-  Not quantitative (</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" sz="1400" i="1" baseline="0"/>
-              <a:t>N</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" sz="1400" i="0" baseline="0"/>
-              <a:t> = xx)</a:t>
+              <a:t> = 9)</a:t>
             </a:r>
           </a:p>
           <a:p>
@@ -590,7 +383,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="en-US" sz="1400" i="0" baseline="0"/>
-              <a:t> = xx)</a:t>
+              <a:t> = 10)</a:t>
             </a:r>
           </a:p>
           <a:p>
@@ -611,7 +404,41 @@
               <a:tabLst/>
               <a:defRPr/>
             </a:pPr>
-            <a:endParaRPr lang="en-US" sz="1400" i="0" baseline="0"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" i="0" baseline="0"/>
+              <a:t>-  Article not found/not  </a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" i="0" baseline="0"/>
+              <a:t>   accessible (</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" i="1" baseline="0"/>
+              <a:t>N</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" i="0" baseline="0"/>
+              <a:t> = 7)</a:t>
+            </a:r>
           </a:p>
           <a:p>
             <a:pPr algn="l"/>
@@ -636,7 +463,7 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="2476499" y="5143500"/>
+            <a:off x="2428874" y="7045324"/>
             <a:ext cx="2438400" cy="876300"/>
           </a:xfrm>
           <a:prstGeom prst="roundRect">
@@ -684,7 +511,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="en-US" sz="1400" i="0" baseline="0"/>
-              <a:t> = 125)</a:t>
+              <a:t> = 123)</a:t>
             </a:r>
             <a:endParaRPr lang="en-US" sz="1400"/>
           </a:p>
@@ -695,16 +522,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>589960</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>40585</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>266067</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>96147</xdr:rowOff>
+      <xdr:colOff>324536</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>52778</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -716,13 +543,14 @@
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
+          <a:stCxn id="30" idx="3"/>
           <a:endCxn id="4" idx="1"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3695700" y="4657725"/>
-          <a:ext cx="1447167" cy="10422"/>
+        <a:xfrm flipV="1">
+          <a:off x="4415835" y="5565085"/>
+          <a:ext cx="345764" cy="12193"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -750,16 +578,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>38099</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>9674</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>602161</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>104924</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>65868</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>607218</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>18243</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -776,9 +604,503 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="3205661" y="1057424"/>
+          <a:ext cx="5057" cy="3342319"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>595312</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>79375</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>86678</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="14" name="Rechte verbindingslijn met pijl 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BFE45285-E93F-4577-885A-32A90D32B042}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="71" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
         <a:xfrm>
-          <a:off x="3695699" y="1533674"/>
-          <a:ext cx="1" cy="1008694"/>
+          <a:off x="3198812" y="1603375"/>
+          <a:ext cx="1543051" cy="7303"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>173832</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>143828</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>173832</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>80309</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="21" name="Rechte verbindingslijn met pijl 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{74CFA32B-B016-4183-998D-B66701C9BB46}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="71" idx="2"/>
+          <a:endCxn id="12" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6269832" y="2048828"/>
+          <a:ext cx="0" cy="317481"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>29528</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>58738</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>97734</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="44" name="Groep 43">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A6D239C4-CEAF-44B6-A8E0-AB70D81DC1D3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="4741863" y="1172528"/>
+          <a:ext cx="2198688" cy="4830706"/>
+          <a:chOff x="5181600" y="1172528"/>
+          <a:chExt cx="2192292" cy="4830706"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="4" name="Rechthoek: afgeronde hoeken 3">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{16901742-230C-4BFD-AC4F-0226557FE67A}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5201279" y="5126935"/>
+            <a:ext cx="2172613" cy="876299"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="dk1"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400"/>
+              <a:t>Excluded</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400"/>
+              <a:t>(</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" i="1"/>
+              <a:t>N</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" baseline="0"/>
+              <a:t> = xx)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1400"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="71" name="Rechthoek: afgeronde hoeken 70">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{726B84C6-45EC-44E8-AEFB-30B9A4BC7DE3}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5181600" y="1172528"/>
+            <a:ext cx="2176463" cy="876300"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="dk1"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400"/>
+              <a:t>Descendency search articles PsychInfo using Google Scholar</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="12" name="Rechthoek: afgeronde hoeken 11">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{847714A2-28EE-49EF-91D6-3C20A2A040BA}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5181600" y="2366309"/>
+            <a:ext cx="2176463" cy="876300"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="dk1"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400"/>
+              <a:t>Application of Google Scholar query</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1400" baseline="0"/>
+          </a:p>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" baseline="0"/>
+              <a:t>(References: </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" i="1" baseline="0"/>
+              <a:t>N</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" i="0" baseline="0"/>
+              <a:t> = 1.426) </a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1400"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="31" name="Rechthoek: afgeronde hoeken 30">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B3971174-2D9B-4B86-B7F2-C0C68D0F173D}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5181600" y="3560090"/>
+            <a:ext cx="2176463" cy="876300"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="dk1"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" baseline="0"/>
+              <a:t>Articles found  and not in PsychINFO query</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" baseline="0"/>
+              <a:t>(</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" i="1" baseline="0"/>
+              <a:t>N </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" i="0" baseline="0"/>
+              <a:t>= 86)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1400" baseline="0"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>173832</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>4109</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>173832</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>131090</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="32" name="Rechte verbindingslijn met pijl 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5777052C-70B1-45DB-AAB4-FC7007C38337}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="12" idx="2"/>
+          <a:endCxn id="31" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6269832" y="3242609"/>
+          <a:ext cx="0" cy="317481"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>188240</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="40" name="Rechte verbindingslijn met pijl 39">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{12FA7B4C-8D8B-4B0A-BC34-0774E2D25872}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="31" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="3203575" y="3990975"/>
+          <a:ext cx="1538288" cy="7265"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1106,12 +1428,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54EF8D06-7062-4135-A2FC-3B1C0D4BDD06}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S23" sqref="S23"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="J37" sqref="J37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="4" max="4" width="2.42578125" customWidth="1"/>
     <col min="13" max="13" width="1" customWidth="1"/>
   </cols>
   <sheetData/>
